--- a/import-service-point/src/test/resources/import-files/valid/service-point-update.xlsx
+++ b/import-service-point/src/test/resources/import-files/valid/service-point-update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devsbb\projekte\atlas\import-service-point\src\test\resources\import-files\valid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F562DC-33A6-4339-9EAE-F7FDD37891FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC6E13-F553-43FC-9618-5B7BE87F0C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-76920" yWindow="-75" windowWidth="38640" windowHeight="21240" xr2:uid="{625E78C6-B03A-4B8C-AE52-506CBC791D04}"/>
+    <workbookView xWindow="-28920" yWindow="5700" windowWidth="29040" windowHeight="17640" xr2:uid="{625E78C6-B03A-4B8C-AE52-506CBC791D04}"/>
   </bookViews>
   <sheets>
     <sheet name="service-point-update" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89349AFE-602A-450B-B586-A66E95F2FC8E}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1014,9 +1016,6 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>8507000</v>
-      </c>
       <c r="C2" s="1">
         <v>44287</v>
       </c>
